--- a/good_results/fixed_memory_table.xlsx
+++ b/good_results/fixed_memory_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="22800" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1136,11 +1136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125516168"/>
-        <c:axId val="-2125506424"/>
+        <c:axId val="2133735720"/>
+        <c:axId val="2128383672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125516168"/>
+        <c:axId val="2133735720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,12 +1150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125506424"/>
+        <c:crossAx val="2128383672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125506424"/>
+        <c:axId val="2128383672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5500.0"/>
@@ -1167,7 +1167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125516168"/>
+        <c:crossAx val="2133735720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1979,11 +1979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094001448"/>
-        <c:axId val="-2093929112"/>
+        <c:axId val="2116380568"/>
+        <c:axId val="2128105304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2094001448"/>
+        <c:axId val="2116380568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,12 +1993,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093929112"/>
+        <c:crossAx val="2128105304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2093929112"/>
+        <c:axId val="2128105304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -2010,7 +2010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094001448"/>
+        <c:crossAx val="2116380568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2822,11 +2822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2093121640"/>
-        <c:axId val="-2093079560"/>
+        <c:axId val="2133341976"/>
+        <c:axId val="2116345336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2093121640"/>
+        <c:axId val="2133341976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,12 +2836,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093079560"/>
+        <c:crossAx val="2116345336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2093079560"/>
+        <c:axId val="2116345336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093121640"/>
+        <c:crossAx val="2133341976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2901,7 +2901,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Number of Points vs. Disk Accesses for Big Box Queries (no error bars) </a:t>
+              <a:t>Number of Points vs. Disk Accesses for Big Box Queries</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -2939,6 +2939,67 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$E$47:$E$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.20195228690659</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.27767744521572</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.42814850481847</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.891389561359</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16.9675274775083</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$E$47:$E$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.20195228690659</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.27767744521572</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.42814850481847</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.891389561359</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16.9675274775083</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$46</c:f>
@@ -3003,6 +3064,67 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$F$47:$F$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.54649684354075</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.89752809302984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.57787072988542</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.89919190275291</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.4011574321637</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$F$47:$F$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.54649684354075</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.89752809302984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.57787072988542</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.89919190275291</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.4011574321637</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$46</c:f>
@@ -3067,6 +3189,67 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$G$47:$G$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.4988154656261</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.55194998845538</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.42366401681005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7884149384784</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11.5379900892659</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$G$47:$G$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.4988154656261</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.55194998845538</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.42366401681005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7884149384784</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11.5379900892659</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$46</c:f>
@@ -3131,6 +3314,67 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$H$47:$H$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.95041231538359</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.53920832150495</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.44753482779137</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.52002785185001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12.2161850714533</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$H$47:$H$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.95041231538359</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.53920832150495</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.44753482779137</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.52002785185001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12.2161850714533</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$46</c:f>
@@ -3195,6 +3439,67 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$I$47:$I$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.3246926033349</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.13944438673222</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.502681114194</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.2453816614327</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12.1815938735454</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$I$47:$I$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.3246926033349</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.13944438673222</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.502681114194</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.2453816614327</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12.1815938735454</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$46</c:f>
@@ -3259,6 +3564,67 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$J$47:$J$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.58088845273789</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.12633743794346</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.43234872776039</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10.2095801921528</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12.1573104262414</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$J$47:$J$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.58088845273789</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.12633743794346</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.43234872776039</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10.2095801921528</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12.1573104262414</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$46</c:f>
@@ -3317,11 +3683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079872792"/>
-        <c:axId val="-2126276840"/>
+        <c:axId val="2133556776"/>
+        <c:axId val="2133560040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079872792"/>
+        <c:axId val="2133556776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,12 +3697,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126276840"/>
+        <c:crossAx val="2133560040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126276840"/>
+        <c:axId val="2133560040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700.0"/>
@@ -3348,7 +3714,849 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079872792"/>
+        <c:crossAx val="2133556776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of Points vs. Cell Probes for Small Box Queries</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$E$34:$E$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.59101666067988</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.2498049267037</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>33.0293582029684</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>60.7533182328339</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.3506244141584</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$E$34:$E$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.59101666067988</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.2498049267037</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>33.0293582029684</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>60.7533182328339</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.3506244141584</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$29:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80.2454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.930999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330.7754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640.0916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1235.8498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveStruct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$F$34:$F$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$F$34:$F$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$29:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RangeTree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$G$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>39.4322176753983</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$G$34:$G$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.04474580219761</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.97083980832212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.5001173374562</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.1651999140783</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.4322176753983</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$29:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>83.1169999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.407199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241.9394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>424.9992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>777.7726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RangeTree_non_veb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$H$34:$H$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.04474580219761</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.97083980832212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.5001173374562</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.1651999140783</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.4322176753983</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$H$34:$H$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.04474580219761</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.97083980832212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.5001173374562</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.1651999140783</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.4322176753983</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$29:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>83.1169999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.407199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241.9394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>424.9992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>777.7726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XBST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$I$34:$I$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.26715385828591</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.2619744060834</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>28.3141753332142</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>57.3823805841131</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.1501990379158</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$I$34:$I$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.26715385828591</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.2619744060834</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>28.3141753332142</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>57.3823805841131</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.1501990379158</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$29:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>198.312799999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>387.6276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>956.267599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1898.14499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3891.225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XBST_non_veb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$J$34:$J$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.26715385828591</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.2619744060834</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>28.3141753332142</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>57.3823805841131</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.1501990379158</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$J$34:$J$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.26715385828591</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.2619744060834</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>28.3141753332142</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>57.3823805841131</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.1501990379158</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$29:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>198.312799999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>387.6276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>956.267599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1898.14499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3891.225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2118708456"/>
+        <c:axId val="2127580808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2118708456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127580808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2127580808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2118708456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3374,16 +4582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>373822</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>329637</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>138044</xdr:rowOff>
+      <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>360143</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>315958</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3489,6 +4697,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11043</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>392042</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3822,7 +5060,7 @@
   <dimension ref="A2:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4755,8 +5993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="V45" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
